--- a/biology/Médecine/Tasimeltéon/Tasimeltéon.xlsx
+++ b/biology/Médecine/Tasimeltéon/Tasimeltéon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tasimelt%C3%A9on</t>
+          <t>Tasimeltéon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tasimelteon, vendu sous le nom Hetlioz, est un médicament approuvé par la Food and Drug Administration (FDA)[1] des États-Unis en janvier 2014, pour le traitement du syndrome hypernycthéméral. En juin 2014, l'Agence européenne des médicaments (EMA) a accepté une demande d'autorisation dans l'UE pour le tasimeltéon[2] et en juillet 2015, le médicament a été approuvé pour le traitement du syndrome hypernycthéméral chez les adultes aveugles[3], mais pas dans le cas plus rare du syndrome hypernycthéméral chez les personnes voyantes.
-Les effets secondaires les plus courants sont les maux de tête, la somnolence, les nausées (sensation de malaise) et les étourdissements[4].
+Tasimelteon, vendu sous le nom Hetlioz, est un médicament approuvé par la Food and Drug Administration (FDA) des États-Unis en janvier 2014, pour le traitement du syndrome hypernycthéméral. En juin 2014, l'Agence européenne des médicaments (EMA) a accepté une demande d'autorisation dans l'UE pour le tasimeltéon et en juillet 2015, le médicament a été approuvé pour le traitement du syndrome hypernycthéméral chez les adultes aveugles, mais pas dans le cas plus rare du syndrome hypernycthéméral chez les personnes voyantes.
+Les effets secondaires les plus courants sont les maux de tête, la somnolence, les nausées (sensation de malaise) et les étourdissements.
 </t>
         </is>
       </c>
